--- a/Interface/AddOns/Claw/Simcraft.xlsx
+++ b/Interface/AddOns/Claw/Simcraft.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,7 +662,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
